--- a/sample inputs/sample_3.xlsx
+++ b/sample inputs/sample_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meeno\Desktop\Python\10 Real World Python Applications\_Project (GitHub) - Geocoder Web Service\sample files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meeno\Desktop\Python\10 Real World Python Applications\App9b_GeocoderWebService\sample files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F59E0B-B529-4DEA-B97E-1CC8AD59AAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41D02F7-691D-45AD-8E1A-7778811E2AE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+  <si>
+    <t>Address</t>
+  </si>
   <si>
     <t>Area</t>
   </si>
@@ -39,61 +42,64 @@
     <t>Half Baths</t>
   </si>
   <si>
+    <t>Locality</t>
+  </si>
+  <si>
     <t>Lot Size</t>
   </si>
   <si>
     <t>Price</t>
   </si>
   <si>
+    <t>0 Gateway</t>
+  </si>
+  <si>
+    <t>Rock Springs, WY 82901</t>
+  </si>
+  <si>
+    <t>1003 Winchester Blvd.</t>
+  </si>
+  <si>
     <t>0.21 Acres</t>
   </si>
   <si>
+    <t>3239 Spearhead Way</t>
+  </si>
+  <si>
     <t xml:space="preserve">Under 1/2 Acre, </t>
   </si>
   <si>
+    <t>600 Talladega</t>
+  </si>
+  <si>
+    <t>3457 Brisol Avenue</t>
+  </si>
+  <si>
     <t>0.34 Acres</t>
   </si>
   <si>
+    <t>234 Via Spoleto</t>
+  </si>
+  <si>
+    <t>2425 Cripple Creek</t>
+  </si>
+  <si>
+    <t>522 Emerald Street</t>
+  </si>
+  <si>
+    <t>1302 Veteran's Drive</t>
+  </si>
+  <si>
     <t>0.27 Acres</t>
   </si>
   <si>
+    <t>343 Via Rucce</t>
+  </si>
+  <si>
     <t>0.16 Acres</t>
   </si>
   <si>
-    <t>1 James Schofield Dr Adelaide Airport SA 5950 Australia</t>
-  </si>
-  <si>
-    <t>78 Mountain St Ultimo NSW 2007 Australia</t>
-  </si>
-  <si>
-    <t>55 Elizabeth St Sydney NSW 2000 Australia</t>
-  </si>
-  <si>
-    <t>12 Resort Dr, Hamilton Island QLD 4803 Australia</t>
-  </si>
-  <si>
-    <t>8 Friday Dr, Thredbo NSW 2625 Australia</t>
-  </si>
-  <si>
-    <t>1 Summit Rd, Mount Buller VIC 3723 Australia</t>
-  </si>
-  <si>
-    <t>140 Springs Ln, Fingal VIC 3939 Australia</t>
-  </si>
-  <si>
-    <t>163 Yulara Dr, Yulara NT 0872 Australia</t>
-  </si>
-  <si>
-    <t>999 Lady Denman Dr, Canberra ACT 2611 Australia</t>
-  </si>
-  <si>
-    <t>1166 Ecclestone Rd, Riverside TAS 7250 Australia</t>
-  </si>
-  <si>
-    <t>210-218 Surf Parade Surfers Paradise QLD 4217 Australia</t>
-  </si>
-  <si>
-    <t>Property Address</t>
+    <t>913 Madison Dr</t>
   </si>
 </sst>
 </file>
@@ -416,20 +422,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -448,211 +449,282 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1">
         <v>725000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1">
+        <v>452900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3076</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1">
+        <v>379900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3154</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1">
+        <v>379000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3236</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1">
+        <v>349900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2688</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="G3" s="1">
-        <v>452900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8263</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1">
+        <v>279900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1172</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2">
-        <v>3076</v>
-      </c>
-      <c r="C4">
+      <c r="I9" s="1">
+        <v>254000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1932</v>
+      </c>
+      <c r="D10">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="1">
+        <v>252900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1">
-        <v>379900</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3154</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1">
-        <v>379000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2">
-        <v>3236</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1">
-        <v>349900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2688</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="1">
-        <v>330000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2">
-        <v>8263</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>35</v>
-      </c>
-      <c r="G8" s="1">
-        <v>279900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1172</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="1">
-        <v>254000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1932</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="1">
+        <v>219900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1344</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
         <v>2</v>
       </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1">
-        <v>252900</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="1">
-        <v>219900</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1344</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="1">
         <v>209000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>